--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/建筑业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/建筑业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.11453665646097</v>
+        <v>0.108938864462135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.052489132116024</v>
+        <v>0.052559653115428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.050060003996808</v>
+        <v>0.057320568471081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.223519158170429</v>
+        <v>0.211478260999508</v>
       </c>
       <c r="F2" t="n">
-        <v>0.012231821423965</v>
+        <v>0.013816535159023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.035175021159627</v>
+        <v>0.04199236579247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.094874075526603</v>
+        <v>0.101013263775596</v>
       </c>
       <c r="I2" t="n">
-        <v>0.341701632344054</v>
+        <v>0.324864975579058</v>
       </c>
       <c r="J2" t="n">
-        <v>0.115900070437781</v>
+        <v>0.104974260724032</v>
       </c>
       <c r="K2" t="n">
-        <v>0.159303804319813</v>
+        <v>0.141887742443699</v>
       </c>
       <c r="L2" t="n">
-        <v>0.036081206934384</v>
+        <v>0.037259264286773</v>
       </c>
       <c r="M2" t="n">
-        <v>0.178465041449093</v>
+        <v>0.205302795140471</v>
       </c>
       <c r="N2" t="n">
-        <v>0.236066375598813</v>
+        <v>0.260386027095383</v>
       </c>
       <c r="O2" t="n">
-        <v>0.477134680531801</v>
+        <v>0.393174121974909</v>
       </c>
       <c r="P2" t="n">
-        <v>0.056604714761223</v>
+        <v>0.06381014933305799</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.278860486505305</v>
+        <v>0.308045431164565</v>
       </c>
       <c r="R2" t="n">
-        <v>0.038176884408701</v>
+        <v>0.043120511946703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.108938864462135</v>
+        <v>0.103089055786408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.052559653115428</v>
+        <v>0.080410420369515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.057320568471081</v>
+        <v>0.054095714392654</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211478260999508</v>
+        <v>0.228061990291101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.013816535159023</v>
+        <v>0.034537944759558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04199236579247</v>
+        <v>0.06323296242389401</v>
       </c>
       <c r="H3" t="n">
-        <v>0.101013263775596</v>
+        <v>0.090912493529924</v>
       </c>
       <c r="I3" t="n">
-        <v>0.324864975579058</v>
+        <v>0.219248616155754</v>
       </c>
       <c r="J3" t="n">
-        <v>0.104974260724032</v>
+        <v>0.094120488094278</v>
       </c>
       <c r="K3" t="n">
-        <v>0.141887742443699</v>
+        <v>0.125159387226926</v>
       </c>
       <c r="L3" t="n">
-        <v>0.037259264286773</v>
+        <v>0.036436938788041</v>
       </c>
       <c r="M3" t="n">
-        <v>0.205302795140471</v>
+        <v>0.127940035813829</v>
       </c>
       <c r="N3" t="n">
-        <v>0.260386027095383</v>
+        <v>0.232225920846962</v>
       </c>
       <c r="O3" t="n">
-        <v>0.393174121974909</v>
+        <v>0.460056743069457</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06381014933305799</v>
+        <v>0.101778956301859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.308045431164565</v>
+        <v>0.269127415937753</v>
       </c>
       <c r="R3" t="n">
-        <v>0.043120511946703</v>
+        <v>0.040835198144764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.103089055786408</v>
+        <v>0.110841617346093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.080410420369515</v>
+        <v>0.107591346191497</v>
       </c>
       <c r="D4" t="n">
-        <v>0.054095714392654</v>
+        <v>0.075775608605546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228061990291101</v>
+        <v>0.256774757170608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.034537944759558</v>
+        <v>0.041285178982346</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06323296242389401</v>
+        <v>0.100624570680482</v>
       </c>
       <c r="H4" t="n">
-        <v>0.090912493529924</v>
+        <v>0.128467253059782</v>
       </c>
       <c r="I4" t="n">
-        <v>0.219248616155754</v>
+        <v>0.274493555127331</v>
       </c>
       <c r="J4" t="n">
-        <v>0.094120488094278</v>
+        <v>0.08223635654986799</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125159387226926</v>
+        <v>0.134288384415</v>
       </c>
       <c r="L4" t="n">
-        <v>0.036436938788041</v>
+        <v>0.050628109879156</v>
       </c>
       <c r="M4" t="n">
-        <v>0.127940035813829</v>
+        <v>0.171002742036572</v>
       </c>
       <c r="N4" t="n">
-        <v>0.232225920846962</v>
+        <v>0.176675143947963</v>
       </c>
       <c r="O4" t="n">
-        <v>0.460056743069457</v>
+        <v>0.402868607767004</v>
       </c>
       <c r="P4" t="n">
-        <v>0.101778956301859</v>
+        <v>0.13461653448816</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.269127415937753</v>
+        <v>0.275421785806702</v>
       </c>
       <c r="R4" t="n">
-        <v>0.040835198144764</v>
+        <v>0.065542139787584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.110841617346093</v>
+        <v>0.021399952550705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.107591346191497</v>
+        <v>0.127665870077813</v>
       </c>
       <c r="D5" t="n">
-        <v>0.075775608605546</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.256774757170608</v>
-      </c>
+        <v>0.04391427656593</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.041285178982346</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.100624570680482</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.128467253059782</v>
-      </c>
+        <v>0.035443523777974</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.274493555127331</v>
+        <v>0.218255350340297</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08223635654986799</v>
+        <v>0.262914984494334</v>
       </c>
       <c r="K5" t="n">
-        <v>0.134288384415</v>
+        <v>0.096891787550364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.050628109879156</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.171002742036572</v>
-      </c>
+        <v>0.02381270099435</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.176675143947963</v>
+        <v>0.159715911235636</v>
       </c>
       <c r="O5" t="n">
-        <v>0.402868607767004</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.13461653448816</v>
-      </c>
+        <v>0.32512579200396</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.275421785806702</v>
+        <v>0.23879383220591</v>
       </c>
       <c r="R5" t="n">
-        <v>0.065542139787584</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.021399952550705</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.127665870077813</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04391427656593</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.035443523777974</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.218255350340297</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.262914984494334</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.096891787550364</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.02381270099435</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.159715911235636</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.32512579200396</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.23879383220591</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.033530372048515</v>
       </c>
     </row>
